--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/107.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/107.xlsx
@@ -479,13 +479,13 @@
         <v>-5.005794649710232</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.435648373122874</v>
+        <v>-8.462945824547873</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.20101520607587</v>
+        <v>-2.187477764937525</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.931549070100138</v>
+        <v>-5.919189936217548</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.767082992145533</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.125350886825004</v>
+        <v>-9.156445106074102</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.113872838361341</v>
+        <v>-2.102508719494723</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.850324423270069</v>
+        <v>-5.84092414982971</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.482629538358349</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.69807367463631</v>
+        <v>-9.731000816283251</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.209315726077524</v>
+        <v>-2.197113699829035</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.701517309171011</v>
+        <v>-5.692680004752845</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.053528542556126</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.34932409489229</v>
+        <v>-10.38476495868484</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.110691408770802</v>
+        <v>-2.096865936969939</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.580046923405476</v>
+        <v>-5.574940925297203</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.504551738835039</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.02359078354402</v>
+        <v>-11.06248801528679</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.235945470057595</v>
+        <v>-2.223298305512488</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.121934154670639</v>
+        <v>-5.11739112558456</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.840092219966895</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.53108771859785</v>
+        <v>-11.5674057666808</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.016754135881417</v>
+        <v>-2.002156218212893</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.022524299193413</v>
+        <v>-5.02477617528219</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.074499127387897</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.1479708438943</v>
+        <v>-12.18271781563624</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.871586681972359</v>
+        <v>-1.855980656985021</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.600795040055734</v>
+        <v>-4.604722730908251</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.226018133434229</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.75760083341643</v>
+        <v>-12.79289768187773</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.79134395785542</v>
+        <v>-1.775607009839665</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.020675101138851</v>
+        <v>-4.022010516028707</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.308712639400857</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.38017911044903</v>
+        <v>-13.41311934439882</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.70510495903697</v>
+        <v>-1.694801316700532</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.656093743905305</v>
+        <v>-3.657285143463902</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.327802629794604</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.23784277730767</v>
+        <v>-14.27224934917572</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.534381329980862</v>
+        <v>-1.52245424209205</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.146881717179212</v>
+        <v>-3.152000807590326</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.297153122427687</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.88870042847839</v>
+        <v>-14.92411510766526</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.397566765284825</v>
+        <v>-1.385783692727271</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.724510935202287</v>
+        <v>-2.731698609462395</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.214265824261844</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.63015681531387</v>
+        <v>-15.66127721916865</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.23642670190886</v>
+        <v>-1.223295122158609</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.122029343031737</v>
+        <v>-2.127619756345154</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.09182655828768</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.2797314208061</v>
+        <v>-16.31324771608092</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.017863798269085</v>
+        <v>-1.00606763340869</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.419051234248097</v>
+        <v>-1.424248878476262</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.933221989340021</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.92002358358356</v>
+        <v>-16.95107852592414</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7967086186666485</v>
+        <v>-0.78344611588798</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.247764636169795</v>
+        <v>-1.251888711564939</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.743293562205885</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.77869535776101</v>
+        <v>-17.80574405543201</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6105229799544621</v>
+        <v>-0.5952049856296426</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.721650446475033</v>
+        <v>-0.7287988438266154</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.534154018042908</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.64194943793306</v>
+        <v>-18.67470637964306</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3006674485993313</v>
+        <v>-0.2883214070195835</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5074734642872362</v>
+        <v>-0.5141112618279913</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.303212385034747</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.392714452089</v>
+        <v>-19.42437164036029</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1678329439671785</v>
+        <v>-0.1626091151333298</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09756655461563474</v>
+        <v>-0.1040734291279726</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.062456735664745</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.0652136798571</v>
+        <v>-20.09837648295519</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06630980005425045</v>
+        <v>0.07230607475576099</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04558468465579809</v>
+        <v>0.03968005607417963</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.811563764610781</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.56471121787463</v>
+        <v>-20.58894507043467</v>
       </c>
       <c r="F20" t="n">
-        <v>0.16392601004216</v>
+        <v>0.1671729011469081</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2934350697525143</v>
+        <v>0.2907118707614353</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.550828579724782</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.20982134809784</v>
+        <v>-21.23626779983813</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4107290109115381</v>
+        <v>0.4119335027729769</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4361280784244867</v>
+        <v>0.4342689714209616</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.286888436819872</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.63289911442822</v>
+        <v>-21.66049768881858</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5256401529533679</v>
+        <v>0.5239512458867852</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6094308911404147</v>
+        <v>0.6154664427504504</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.013841408513072</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.00724732958169</v>
+        <v>-22.03472807324648</v>
       </c>
       <c r="F23" t="n">
-        <v>0.667246500489477</v>
+        <v>0.6666835314672828</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6401061566985788</v>
+        <v>0.6511167833884705</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.740378623742926</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.3058303881901</v>
+        <v>-22.3320935476906</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8528168009681023</v>
+        <v>0.8529084470879944</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7824456731938246</v>
+        <v>0.7996096822193275</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.465215177773413</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.45649660929268</v>
+        <v>-22.47660638645757</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8641154583205118</v>
+        <v>0.8635132123897925</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8872364651390001</v>
+        <v>0.906599981041913</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.18743198426932</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.67906575760203</v>
+        <v>-22.69924099628112</v>
       </c>
       <c r="F26" t="n">
-        <v>1.027664505419354</v>
+        <v>1.026734951917591</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6790819422583974</v>
+        <v>0.7045071943770294</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.911203393364559</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.55233226609412</v>
+        <v>-22.57164341278566</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9903907192289598</v>
+        <v>0.9876937048435642</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5661739225513518</v>
+        <v>0.5915337131557752</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.628961664540174</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.65729325797623</v>
+        <v>-22.6775208658667</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9872354742441038</v>
+        <v>0.9852061673036363</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1291397613916939</v>
+        <v>0.1541984290307576</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.345539489849082</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.39669096991167</v>
+        <v>-22.41923591540513</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9523575794737456</v>
+        <v>0.9522790256566952</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1059456284343394</v>
+        <v>-0.07792810035304563</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.059839114908724</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.23989755107916</v>
+        <v>-22.26599051064272</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8865949422997556</v>
+        <v>0.8876685111327771</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5711282407037084</v>
+        <v>-0.5447865273861555</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.772549432372637</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.78090759805393</v>
+        <v>-21.80275865149677</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8808605136550796</v>
+        <v>0.8798262217305831</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8603503027802789</v>
+        <v>-0.8367186961509634</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.493418988374762</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.31236026395424</v>
+        <v>-21.33398874824877</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8242232115617726</v>
+        <v>0.826880949038643</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.27973603970929</v>
+        <v>-1.257452940272672</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.224970720140069</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.10067081930637</v>
+        <v>-21.12557237931133</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7298277080729276</v>
+        <v>0.7307572615746901</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.689158534175748</v>
+        <v>-1.668171572720461</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.980681220008467</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.61037717018657</v>
+        <v>-20.63339343858232</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6811112491988649</v>
+        <v>0.6842664941837209</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.067080948005013</v>
+        <v>-2.051501107623358</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.769395006497326</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.22347343660788</v>
+        <v>-20.2466991818491</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6298417912706656</v>
+        <v>0.6360213582119603</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.265390059148637</v>
+        <v>-2.249914957189717</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.595693466031889</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.66601627391003</v>
+        <v>-19.69252818716452</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6464035543654491</v>
+        <v>0.6526878597294776</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.587565447477832</v>
+        <v>-2.572705683752473</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.469239969808802</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.29487567295278</v>
+        <v>-19.31909643320997</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5664226763053445</v>
+        <v>0.5734532429313515</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.820176392066779</v>
+        <v>-2.80447872095955</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.387895279896698</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.59384831729255</v>
+        <v>-18.61535897086151</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7394767352672798</v>
+        <v>0.7468869786756966</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.886043767663503</v>
+        <v>-2.873553710752497</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.353208981674778</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.13169002697963</v>
+        <v>-18.158791093862</v>
       </c>
       <c r="F39" t="n">
-        <v>0.831083578250837</v>
+        <v>0.8404969439940381</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.813669517554442</v>
+        <v>-2.797592169664802</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.362816473553395</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.53799337001587</v>
+        <v>-17.56237123790717</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7191051120455539</v>
+        <v>0.729277831353575</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.869128512391993</v>
+        <v>-2.853339195164871</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.407464807835068</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.98320703709773</v>
+        <v>-17.01034738088863</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8757545155468064</v>
+        <v>0.8878648956754029</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.026589638669432</v>
+        <v>-3.015081504471555</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.486316062217918</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.3382801991143</v>
+        <v>-16.3652634352711</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8549377540284619</v>
+        <v>0.8669041188257995</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.170591877625577</v>
+        <v>-3.160694096677233</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.590736027142738</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.77752377610033</v>
+        <v>-15.80259553604224</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8776528994588566</v>
+        <v>0.889920387221554</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.181811981160937</v>
+        <v>-3.175030168288923</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.716891261722134</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.1900459629864</v>
+        <v>-15.21243380084575</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9567435009257238</v>
+        <v>0.9712104955658312</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.337518738857585</v>
+        <v>-3.333329201948232</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.863623046480729</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.67024226326135</v>
+        <v>-14.69979159077513</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9224023905718763</v>
+        <v>0.9374192619313362</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.433105641905027</v>
+        <v>-3.430251519885531</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.023169012299022</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.1985396841768</v>
+        <v>-14.23048490311062</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7329305838464166</v>
+        <v>0.7476987014518837</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.460599477872651</v>
+        <v>-3.459735385885098</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.199402401429302</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.42376338660914</v>
+        <v>-13.45721422036975</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7843833340144001</v>
+        <v>0.7994263899795434</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.338382830845139</v>
+        <v>-3.335515616522801</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.389633320116634</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.85284733658999</v>
+        <v>-12.88597086277956</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7076624393618853</v>
+        <v>0.7235695873145825</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.360181515076613</v>
+        <v>-3.354735117094455</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.59309861467661</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.43992919726479</v>
+        <v>-12.47012004761781</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6696685765151963</v>
+        <v>0.6861779703986128</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.49221738923542</v>
+        <v>-3.486731714344737</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.813610131447804</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.8902095855464</v>
+        <v>-11.92110742025287</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6205724408587235</v>
+        <v>0.6353274661613488</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.636350551219982</v>
+        <v>-3.633483336897644</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.045032413647926</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.41865102179311</v>
+        <v>-11.44598775012663</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6250369161277521</v>
+        <v>0.640865510263399</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.810360348289363</v>
+        <v>-3.808226302926162</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.29159717534203</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.95483000901928</v>
+        <v>-10.98363307527108</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5696695674100926</v>
+        <v>0.5839663621132575</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.868765111266304</v>
+        <v>-3.863907866912023</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.550114858802389</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.35418133924657</v>
+        <v>-10.38235597496196</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5465092836830792</v>
+        <v>0.5609762783231865</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.024314761328851</v>
+        <v>-4.020020485996765</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.816948887020459</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.921441453418998</v>
+        <v>-9.948031920490545</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5325659811566409</v>
+        <v>0.5495990671537265</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.093507581847374</v>
+        <v>-4.086568661341258</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.09425120805864</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.43350441881071</v>
+        <v>-9.457633532948011</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4441667523693065</v>
+        <v>0.4611343768521835</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.211181199788807</v>
+        <v>-4.202409356884851</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.371573882073193</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.097909420068746</v>
+        <v>-9.127786055153564</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4081367349488764</v>
+        <v>0.4280763121768252</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.471770395550522</v>
+        <v>-4.461414384002717</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.649379110290643</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.581090765391609</v>
+        <v>-8.610561539088334</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3775400232077625</v>
+        <v>0.398500800057366</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.455221724758581</v>
+        <v>-4.443674313652179</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.920397979149561</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.46937414524316</v>
+        <v>-8.503597424871433</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3337986394135558</v>
+        <v>0.3570898461689864</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.523354068746923</v>
+        <v>-4.511099673287068</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.17601330594156</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.92317636298919</v>
+        <v>-7.95055236823124</v>
       </c>
       <c r="F59" t="n">
-        <v>0.338040545534275</v>
+        <v>0.3566708924780512</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.759617765828712</v>
+        <v>-4.74822746235641</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.414948244235252</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.830234105115777</v>
+        <v>-7.858984802156208</v>
       </c>
       <c r="F60" t="n">
-        <v>0.448303920067292</v>
+        <v>0.4704037272641255</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.818938990004573</v>
+        <v>-4.807875994103314</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.623929388079061</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.499090489339999</v>
+        <v>-7.526217740828057</v>
       </c>
       <c r="F61" t="n">
-        <v>0.401368014379704</v>
+        <v>0.4241878982328325</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.932121948071295</v>
+        <v>-4.91866306075</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.802519378288626</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.214437640955191</v>
+        <v>-7.241839830802924</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3733243016927267</v>
+        <v>0.3967071545680495</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.123282661863337</v>
+        <v>-5.109470282365316</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.943520381427559</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.033528200288221</v>
+        <v>-7.061270790009838</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3395199757553901</v>
+        <v>0.3625231518483027</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.071843003998195</v>
+        <v>-5.058933993396254</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.040060112579696</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.816326896143985</v>
+        <v>-6.844841931733264</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1377152197530244</v>
+        <v>0.1599852268868005</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.061251330999239</v>
+        <v>-5.05124881162816</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.093987702588644</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.757895948561362</v>
+        <v>-6.787471460680822</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05143694402604964</v>
+        <v>0.07340582819446599</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.119826293913121</v>
+        <v>-5.108239605898194</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.097222698358066</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.490865339801517</v>
+        <v>-6.51546577684112</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09252059034338604</v>
+        <v>0.114842966688529</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.087671598133842</v>
+        <v>-5.076844263683735</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.055798484062932</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.372602568232206</v>
+        <v>-6.399363235240694</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.04032700659160837</v>
+        <v>-0.01560873882642955</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.040120354212693</v>
+        <v>-5.031950757239456</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.969429304768266</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.156985432731819</v>
+        <v>-6.183916299677249</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.07490377839660692</v>
+        <v>-0.05001531069448566</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.023126545124133</v>
+        <v>-5.017732516353342</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.839345844620857</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.179412547499695</v>
+        <v>-6.205597153183148</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1526458726707763</v>
+        <v>-0.129865265726173</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.91562564649072</v>
+        <v>-4.90780954169421</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.674325857159314</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.317994573079366</v>
+        <v>-6.342136779519508</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1903909817634726</v>
+        <v>-0.1660654830835455</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.847152902628492</v>
+        <v>-4.841156627926982</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.47250706078746</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.338143627152783</v>
+        <v>-6.362220372078717</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1880998287661705</v>
+        <v>-0.1651621141874664</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.787779309241265</v>
+        <v>-4.783170818640977</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.244445556186733</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.444858987615691</v>
+        <v>-6.471868408378173</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.292890620711346</v>
+        <v>-0.2722702437356274</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.663769016724435</v>
+        <v>-4.659828233569076</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.991863263271926</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.542501382209284</v>
+        <v>-6.568240849596118</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.292982266831238</v>
+        <v>-0.2713537825367066</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.418956045887</v>
+        <v>-4.413666755538943</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.717048797848322</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.834184797220099</v>
+        <v>-6.85762001930679</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2997509874004104</v>
+        <v>-0.2796673948412026</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.124483970370897</v>
+        <v>-4.121223986963307</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.427855306930899</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.070330663576313</v>
+        <v>-7.093032716703866</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4343005837048292</v>
+        <v>-0.4149370678019164</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.864156620666016</v>
+        <v>-3.858540022746916</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.121563317474997</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.345596330823604</v>
+        <v>-7.367093892089717</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5328332548916596</v>
+        <v>-0.5143338309763007</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.507129522172146</v>
+        <v>-3.500976139836535</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.807178438999222</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.852949250546172</v>
+        <v>-7.871684335912682</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4117818228170604</v>
+        <v>-0.3941072139807302</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.384598659876432</v>
+        <v>-3.376232678360569</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.485469424557918</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.250339918701084</v>
+        <v>-8.27102575719101</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5008356667464811</v>
+        <v>-0.4832919809385682</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.396656670793662</v>
+        <v>-3.390189073189849</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.158380503325598</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.720235759993473</v>
+        <v>-8.738931568451459</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5423120821490692</v>
+        <v>-0.5261430881395376</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.127033786071155</v>
+        <v>-3.117934635596155</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.831681020338105</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.295838854429959</v>
+        <v>-9.313146878786721</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6104706107430952</v>
+        <v>-0.5919188176163693</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.756259769593473</v>
+        <v>-2.746558373187753</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.502071761960872</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.869739949497022</v>
+        <v>-9.884220036439972</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6229475753512601</v>
+        <v>-0.6112168720050736</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.593195137699774</v>
+        <v>-2.587421432146573</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.175378679375284</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.76698164784619</v>
+        <v>-10.78431585680864</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6198185149720876</v>
+        <v>-0.6035447825398221</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.203319451376014</v>
+        <v>-2.195320054339719</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.849787447483994</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.57759157829166</v>
+        <v>-11.5905922350135</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6852538445750345</v>
+        <v>-0.6716771265281646</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.973038936692894</v>
+        <v>-1.965131185776491</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.524544075875226</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.52815822611518</v>
+        <v>-12.53933905274202</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5884886342718372</v>
+        <v>-0.5739299935118377</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.742483483650098</v>
+        <v>-1.737586962387292</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.201985915300022</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.69897668464506</v>
+        <v>-13.70621672811654</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6840755373192792</v>
+        <v>-0.66883609681151</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.587981217814889</v>
+        <v>-1.583857142419745</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.878169694828382</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.81754376253361</v>
+        <v>-14.82778194335584</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7412365315262551</v>
+        <v>-0.7278692903248528</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.328360852463461</v>
+        <v>-1.320112701673173</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.557156950010917</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.94822122055076</v>
+        <v>-15.95675740200356</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7657584147488081</v>
+        <v>-0.7524042658502474</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.24954518935627</v>
+        <v>-1.241702899954076</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.238867923435738</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.29028700025042</v>
+        <v>-17.29591669047236</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9479247164885846</v>
+        <v>-0.9360238132054556</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.08874552585419</v>
+        <v>-1.0816887746225</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.9262361139684562</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78629207676309</v>
+        <v>-18.78660629203129</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9620644035576488</v>
+        <v>-0.9515774689814261</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.129004357092498</v>
+        <v>-1.122641497911419</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.6264942202865463</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.34730043688493</v>
+        <v>-20.34692076010252</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.03868055978743</v>
+        <v>-1.034045884581459</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.054757907677069</v>
+        <v>-1.048434325404516</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3444697403677314</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99279342724443</v>
+        <v>-21.99445614970533</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.151994440882569</v>
+        <v>-1.148276226875519</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.069460563768328</v>
+        <v>-1.057847691147717</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.09109472726843632</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64712372202209</v>
+        <v>-23.6475033988045</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.287342667660333</v>
+        <v>-1.286373837250045</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.258461047591485</v>
+        <v>-1.247790820775478</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1259244199611704</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70375429852031</v>
+        <v>-25.7044089136624</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.30256901586526</v>
+        <v>-1.300055293719649</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.496322005619964</v>
+        <v>-1.483138056658346</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3001743246911834</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.69603620655145</v>
+        <v>-27.69967586674145</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.305671891638749</v>
+        <v>-1.301966769934541</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.477757120190397</v>
+        <v>-1.45980757299439</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.4256882366833593</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.01008764152369</v>
+        <v>-30.01709202354402</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.616810468672369</v>
+        <v>-1.615933284381974</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.724926705539343</v>
+        <v>-1.706296358595567</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.4993243202841843</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.1390662835253</v>
+        <v>-32.14778575721788</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.628384064384455</v>
+        <v>-1.621340405455607</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.007236031715482</v>
+        <v>-1.982426117830412</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.52254200866683</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.5180555405925</v>
+        <v>-34.52602875302311</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.765669951982795</v>
+        <v>-1.764059598733263</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.166726464933389</v>
+        <v>-2.141327397420441</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.4929958325600773</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.60168244555036</v>
+        <v>-36.60180027627594</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.985136224518649</v>
+        <v>-1.98195479492811</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.402309362267408</v>
+        <v>-2.372733850147949</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.4237510214876116</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.89774505641807</v>
+        <v>-38.90357113118264</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.039037235318035</v>
+        <v>-2.040555942447675</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.662348681309771</v>
+        <v>-2.636046244900744</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.3083159822005573</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.23180153013246</v>
+        <v>-41.24093995751599</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.442633655019925</v>
+        <v>-2.445409223222371</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.840521830682821</v>
+        <v>-2.813499317617499</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1743297483988311</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.58145093653136</v>
+        <v>-43.58880881072841</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.616551805969414</v>
+        <v>-2.620256927673622</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.024966193117058</v>
+        <v>-3.002329601503714</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.005266162408711828</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.92010280854321</v>
+        <v>-45.93056355851375</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.937103748746235</v>
+        <v>-2.945522099473465</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.376036293817943</v>
+        <v>-3.357039362394598</v>
       </c>
     </row>
   </sheetData>
